--- a/bigfish/sdk/tools/windows/HiTool/hitool_release_notes_cn.xlsx
+++ b/bigfish/sdk/tools/windows/HiTool/hitool_release_notes_cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="7815" yWindow="960" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <t xml:space="preserve">
@@ -592,12 +592,136 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HiTool-STB-3.1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【HiLoader】
+V4.0.14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支持导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HiBurn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiTool-STB-3.1.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【HiLoader】
+V4.0.16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 导入XML文件只检查勾选的分区文件是否存在；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修复导入XML文件需要检查所有分区文件。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +768,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,6 +821,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -977,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -998,73 +1138,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="162">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="54">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="162">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="162">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="162">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="309" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:5" ht="309" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C6" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="102" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:5" ht="102" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C7" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="276.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:5" ht="276.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="190.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="121.5">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="94.5">
+    <row r="9" spans="1:5" ht="190.5" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="121.5">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="94.5">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
